--- a/Code/Results/Cases/Case_5_110/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_110/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9946597993313806</v>
+        <v>1.047608429025024</v>
       </c>
       <c r="D2">
-        <v>1.011769781503683</v>
+        <v>1.044381863062638</v>
       </c>
       <c r="E2">
-        <v>1.007413174410074</v>
+        <v>1.054068460966527</v>
       </c>
       <c r="F2">
-        <v>1.009683159535631</v>
+        <v>1.062642762355889</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03921495774597</v>
+        <v>1.034920297112268</v>
       </c>
       <c r="J2">
-        <v>1.017001416575663</v>
+        <v>1.052656590605688</v>
       </c>
       <c r="K2">
-        <v>1.023067544127124</v>
+        <v>1.047153071356502</v>
       </c>
       <c r="L2">
-        <v>1.018770189084568</v>
+        <v>1.056812690318958</v>
       </c>
       <c r="M2">
-        <v>1.021009220976927</v>
+        <v>1.065363555061269</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.002664995299847</v>
+        <v>1.049185259509893</v>
       </c>
       <c r="D3">
-        <v>1.017497598327999</v>
+        <v>1.045511126727464</v>
       </c>
       <c r="E3">
-        <v>1.014480393005855</v>
+        <v>1.05551414776966</v>
       </c>
       <c r="F3">
-        <v>1.017555444765265</v>
+        <v>1.064273750346214</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041179769785447</v>
+        <v>1.035215496809748</v>
       </c>
       <c r="J3">
-        <v>1.023083272566632</v>
+        <v>1.053878881405361</v>
       </c>
       <c r="K3">
-        <v>1.027911384238565</v>
+        <v>1.048092731787552</v>
       </c>
       <c r="L3">
-        <v>1.024931287341661</v>
+        <v>1.058069929759842</v>
       </c>
       <c r="M3">
-        <v>1.027968521899883</v>
+        <v>1.066807348783988</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.007680408613945</v>
+        <v>1.050203793147683</v>
       </c>
       <c r="D4">
-        <v>1.021088352699286</v>
+        <v>1.046240063579247</v>
       </c>
       <c r="E4">
-        <v>1.018914895338836</v>
+        <v>1.056448248816176</v>
       </c>
       <c r="F4">
-        <v>1.022496947847721</v>
+        <v>1.065327974101145</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042397341031819</v>
+        <v>1.035404403034405</v>
       </c>
       <c r="J4">
-        <v>1.026889668519868</v>
+        <v>1.054667647215958</v>
       </c>
       <c r="K4">
-        <v>1.030938751700814</v>
+        <v>1.048698405076113</v>
       </c>
       <c r="L4">
-        <v>1.028790270778336</v>
+        <v>1.058881578580477</v>
       </c>
       <c r="M4">
-        <v>1.032331229850171</v>
+        <v>1.067739965838104</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.009751872319962</v>
+        <v>1.050631567642782</v>
       </c>
       <c r="D5">
-        <v>1.022571775396104</v>
+        <v>1.046546089941672</v>
       </c>
       <c r="E5">
-        <v>1.020747956679327</v>
+        <v>1.056840628256511</v>
       </c>
       <c r="F5">
-        <v>1.024540059879893</v>
+        <v>1.065770907049536</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042896924804695</v>
+        <v>1.035483316578883</v>
       </c>
       <c r="J5">
-        <v>1.028460744401017</v>
+        <v>1.054998739537172</v>
       </c>
       <c r="K5">
-        <v>1.032187235033084</v>
+        <v>1.048952472852036</v>
       </c>
       <c r="L5">
-        <v>1.030383769983621</v>
+        <v>1.059222355373946</v>
       </c>
       <c r="M5">
-        <v>1.034133653605141</v>
+        <v>1.068131659719772</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.01009757424194</v>
+        <v>1.050703368677852</v>
       </c>
       <c r="D6">
-        <v>1.022819358181254</v>
+        <v>1.046597448723947</v>
       </c>
       <c r="E6">
-        <v>1.021053959275744</v>
+        <v>1.056906492147343</v>
       </c>
       <c r="F6">
-        <v>1.024881156210774</v>
+        <v>1.065845262291989</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042980103144034</v>
+        <v>1.03549653709225</v>
       </c>
       <c r="J6">
-        <v>1.028722874365593</v>
+        <v>1.055054301994997</v>
       </c>
       <c r="K6">
-        <v>1.032395478200122</v>
+        <v>1.048995099423452</v>
       </c>
       <c r="L6">
-        <v>1.030649683470092</v>
+        <v>1.059279547679252</v>
       </c>
       <c r="M6">
-        <v>1.034434485722161</v>
+        <v>1.068197404894331</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.007708230098159</v>
+        <v>1.050209510718585</v>
       </c>
       <c r="D7">
-        <v>1.021108275021935</v>
+        <v>1.046244154356771</v>
       </c>
       <c r="E7">
-        <v>1.018939508960409</v>
+        <v>1.056453493044083</v>
       </c>
       <c r="F7">
-        <v>1.022524380023975</v>
+        <v>1.065333893614206</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042404064011312</v>
+        <v>1.03540545945365</v>
       </c>
       <c r="J7">
-        <v>1.026910773596609</v>
+        <v>1.054672073262721</v>
       </c>
       <c r="K7">
-        <v>1.030955527444419</v>
+        <v>1.04870180212539</v>
       </c>
       <c r="L7">
-        <v>1.028811674234849</v>
+        <v>1.058886133778266</v>
       </c>
       <c r="M7">
-        <v>1.032355435861139</v>
+        <v>1.067745201147537</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9974007427758316</v>
+        <v>1.048141700714156</v>
       </c>
       <c r="D8">
-        <v>1.013730408062964</v>
+        <v>1.044763873339297</v>
       </c>
       <c r="E8">
-        <v>1.00983147091442</v>
+        <v>1.054557322826592</v>
       </c>
       <c r="F8">
-        <v>1.012376570186971</v>
+        <v>1.063194202664957</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039890489248288</v>
+        <v>1.03502049883413</v>
       </c>
       <c r="J8">
-        <v>1.019084613573651</v>
+        <v>1.053070116452545</v>
       </c>
       <c r="K8">
-        <v>1.024727549557761</v>
+        <v>1.047471123740857</v>
       </c>
       <c r="L8">
-        <v>1.020879895363548</v>
+        <v>1.057237971592182</v>
       </c>
       <c r="M8">
-        <v>1.02339146267789</v>
+        <v>1.065851830979739</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.977858842843813</v>
+        <v>1.044483893126027</v>
       </c>
       <c r="D9">
-        <v>0.9997681815515118</v>
+        <v>1.04214160373407</v>
       </c>
       <c r="E9">
-        <v>0.9926237194216906</v>
+        <v>1.051205302516636</v>
       </c>
       <c r="F9">
-        <v>0.9932176415866772</v>
+        <v>1.059414704751303</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035019331257072</v>
+        <v>1.034325917899638</v>
       </c>
       <c r="J9">
-        <v>1.004218441456155</v>
+        <v>1.050230572266005</v>
       </c>
       <c r="K9">
-        <v>1.012865020968279</v>
+        <v>1.045284276116232</v>
       </c>
       <c r="L9">
-        <v>1.005837616145549</v>
+        <v>1.054319063610508</v>
       </c>
       <c r="M9">
-        <v>1.006421724703829</v>
+        <v>1.062502746099586</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9637133303824734</v>
+        <v>1.042035309320702</v>
       </c>
       <c r="D10">
-        <v>0.9896913434978075</v>
+        <v>1.040383773376754</v>
       </c>
       <c r="E10">
-        <v>0.9802170646894951</v>
+        <v>1.048962920825393</v>
       </c>
       <c r="F10">
-        <v>0.9794105000046932</v>
+        <v>1.056888366954756</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031427031472719</v>
+        <v>1.033851825778358</v>
       </c>
       <c r="J10">
-        <v>0.9934444679866095</v>
+        <v>1.048325875183272</v>
       </c>
       <c r="K10">
-        <v>1.004249252247652</v>
+        <v>1.043813782017492</v>
       </c>
       <c r="L10">
-        <v>0.9949529350239841</v>
+        <v>1.052362834888257</v>
       </c>
       <c r="M10">
-        <v>0.9941617286201134</v>
+        <v>1.060260957184983</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9572718798214072</v>
+        <v>1.040972530728778</v>
       </c>
       <c r="D11">
-        <v>0.9851129788614663</v>
+        <v>1.039620244514013</v>
       </c>
       <c r="E11">
-        <v>0.974581324971841</v>
+        <v>1.047990008384568</v>
       </c>
       <c r="F11">
-        <v>0.9731393588913847</v>
+        <v>1.055792726526436</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029776963899508</v>
+        <v>1.033643892218009</v>
       </c>
       <c r="J11">
-        <v>0.9885369424245148</v>
+        <v>1.047498253127326</v>
       </c>
       <c r="K11">
-        <v>1.000321211482385</v>
+        <v>1.043173978901836</v>
       </c>
       <c r="L11">
-        <v>0.9899990658952298</v>
+        <v>1.05151322477629</v>
       </c>
       <c r="M11">
-        <v>0.9885862500977444</v>
+        <v>1.059287973336832</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9548265394202831</v>
+        <v>1.040577376525441</v>
       </c>
       <c r="D12">
-        <v>0.9833767836591564</v>
+        <v>1.039336271838595</v>
       </c>
       <c r="E12">
-        <v>0.9724441543433952</v>
+        <v>1.047628323429212</v>
       </c>
       <c r="F12">
-        <v>0.9707612774307189</v>
+        <v>1.055385487652793</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029148562889359</v>
+        <v>1.033566256014586</v>
       </c>
       <c r="J12">
-        <v>0.9866738821711529</v>
+        <v>1.047190396723541</v>
       </c>
       <c r="K12">
-        <v>0.9988295415236914</v>
+        <v>1.04293585979148</v>
       </c>
       <c r="L12">
-        <v>0.9881190327014571</v>
+        <v>1.051197249847285</v>
       </c>
       <c r="M12">
-        <v>0.9864709340012611</v>
+        <v>1.058926212176778</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9553535497111835</v>
+        <v>1.040662156318247</v>
       </c>
       <c r="D13">
-        <v>0.9837508718550367</v>
+        <v>1.039397201528772</v>
       </c>
       <c r="E13">
-        <v>0.9729046415147491</v>
+        <v>1.047705919898046</v>
       </c>
       <c r="F13">
-        <v>0.9712736718897715</v>
+        <v>1.055472854133084</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029284080809927</v>
+        <v>1.033582927404177</v>
       </c>
       <c r="J13">
-        <v>0.9870754004270232</v>
+        <v>1.04725645305114</v>
       </c>
       <c r="K13">
-        <v>0.999151038534914</v>
+        <v>1.042986958421981</v>
       </c>
       <c r="L13">
-        <v>0.9885241807586836</v>
+        <v>1.051265045418318</v>
       </c>
       <c r="M13">
-        <v>0.9869267580116473</v>
+        <v>1.059003827246229</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9570708549993047</v>
+        <v>1.040939875200263</v>
       </c>
       <c r="D14">
-        <v>0.9849702111050358</v>
+        <v>1.039596778711434</v>
       </c>
       <c r="E14">
-        <v>0.9744055860001348</v>
+        <v>1.047960117608603</v>
       </c>
       <c r="F14">
-        <v>0.9729438094299567</v>
+        <v>1.055759069589815</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029725344221125</v>
+        <v>1.033637482968276</v>
       </c>
       <c r="J14">
-        <v>0.9883837849822056</v>
+        <v>1.047472814662097</v>
       </c>
       <c r="K14">
-        <v>1.000198593799323</v>
+        <v>1.043154305482135</v>
       </c>
       <c r="L14">
-        <v>0.9898445005313188</v>
+        <v>1.051487114235841</v>
       </c>
       <c r="M14">
-        <v>0.9884123286954898</v>
+        <v>1.059258077277502</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.958121792212257</v>
+        <v>1.041110934824777</v>
       </c>
       <c r="D15">
-        <v>0.985716664220403</v>
+        <v>1.039719696348989</v>
       </c>
       <c r="E15">
-        <v>0.9753244261290854</v>
+        <v>1.048116696908854</v>
       </c>
       <c r="F15">
-        <v>0.9739662288106961</v>
+        <v>1.055935380375002</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029995126641668</v>
+        <v>1.033671043316778</v>
       </c>
       <c r="J15">
-        <v>0.989184475978212</v>
+        <v>1.047606063530185</v>
       </c>
       <c r="K15">
-        <v>1.000839608198133</v>
+        <v>1.04325735134984</v>
       </c>
       <c r="L15">
-        <v>0.9906525772314627</v>
+        <v>1.051623885968628</v>
       </c>
       <c r="M15">
-        <v>0.9893216250032911</v>
+        <v>1.05941468221937</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9641337392997772</v>
+        <v>1.042105788246935</v>
       </c>
       <c r="D16">
-        <v>0.9899903948475963</v>
+        <v>1.040434395603409</v>
       </c>
       <c r="E16">
-        <v>0.9805851918914815</v>
+        <v>1.049027448000089</v>
       </c>
       <c r="F16">
-        <v>0.9798201418631954</v>
+        <v>1.056961043845567</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031534443083418</v>
+        <v>1.03386556962877</v>
       </c>
       <c r="J16">
-        <v>0.9937647487761554</v>
+        <v>1.048380740406963</v>
       </c>
       <c r="K16">
-        <v>1.004505541648846</v>
+        <v>1.043856178411663</v>
       </c>
       <c r="L16">
-        <v>0.9952763251776787</v>
+        <v>1.052419166237338</v>
       </c>
       <c r="M16">
-        <v>0.9945257847630278</v>
+        <v>1.060325482153174</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9678167656767913</v>
+        <v>1.042729149265117</v>
       </c>
       <c r="D17">
-        <v>0.9926114540679347</v>
+        <v>1.040882066338727</v>
       </c>
       <c r="E17">
-        <v>0.9838117842459959</v>
+        <v>1.049598210293363</v>
       </c>
       <c r="F17">
-        <v>0.9834106846891278</v>
+        <v>1.057603947419795</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032473845788375</v>
+        <v>1.033986879992691</v>
       </c>
       <c r="J17">
-        <v>0.9965704579402287</v>
+        <v>1.048865898742429</v>
       </c>
       <c r="K17">
-        <v>1.006750283463327</v>
+        <v>1.044230980388098</v>
       </c>
       <c r="L17">
-        <v>0.99810973265323</v>
+        <v>1.052917335619225</v>
       </c>
       <c r="M17">
-        <v>0.997715974296373</v>
+        <v>1.060896186972302</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9699348771121524</v>
+        <v>1.043092502292184</v>
       </c>
       <c r="D18">
-        <v>0.9941197719180878</v>
+        <v>1.041142956261732</v>
       </c>
       <c r="E18">
-        <v>0.9856686845465215</v>
+        <v>1.049930939134834</v>
       </c>
       <c r="F18">
-        <v>0.9854771154753663</v>
+        <v>1.057978777033221</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.0330127540452</v>
+        <v>1.034057382900525</v>
       </c>
       <c r="J18">
-        <v>0.9981838829127484</v>
+        <v>1.049148606524111</v>
       </c>
       <c r="K18">
-        <v>1.008040783627346</v>
+        <v>1.044449300329841</v>
       </c>
       <c r="L18">
-        <v>0.9997394671683477</v>
+        <v>1.053207663934179</v>
       </c>
       <c r="M18">
-        <v>0.9995513317786356</v>
+        <v>1.061228850661203</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9706521314900918</v>
+        <v>1.043216355428198</v>
       </c>
       <c r="D19">
-        <v>0.9946306838876475</v>
+        <v>1.041231874377765</v>
       </c>
       <c r="E19">
-        <v>0.9862976972137472</v>
+        <v>1.050044359614786</v>
       </c>
       <c r="F19">
-        <v>0.9861771202935963</v>
+        <v>1.058106556558348</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033195012255323</v>
+        <v>1.034081379329437</v>
       </c>
       <c r="J19">
-        <v>0.9987302072290373</v>
+        <v>1.049244955871821</v>
       </c>
       <c r="K19">
-        <v>1.008477701905214</v>
+        <v>1.044523691828837</v>
       </c>
       <c r="L19">
-        <v>1.000291378634607</v>
+        <v>1.053306617016991</v>
       </c>
       <c r="M19">
-        <v>1.000172947520854</v>
+        <v>1.061342243572779</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9674247637552309</v>
+        <v>1.042662293735415</v>
       </c>
       <c r="D20">
-        <v>0.9923323819878611</v>
+        <v>1.04083405922642</v>
       </c>
       <c r="E20">
-        <v>0.9834682277549363</v>
+        <v>1.049536992327527</v>
       </c>
       <c r="F20">
-        <v>0.9830283684276538</v>
+        <v>1.05753498711329</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032373999402582</v>
+        <v>1.03397389097151</v>
       </c>
       <c r="J20">
-        <v>0.996271846541954</v>
+        <v>1.048813874545088</v>
       </c>
       <c r="K20">
-        <v>1.006511410601031</v>
+        <v>1.044190798317522</v>
       </c>
       <c r="L20">
-        <v>0.997808133593479</v>
+        <v>1.052863912211451</v>
       </c>
       <c r="M20">
-        <v>0.9973763557912088</v>
+        <v>1.060834978447237</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9565666516579118</v>
+        <v>1.040858104795177</v>
       </c>
       <c r="D21">
-        <v>0.9846121572661329</v>
+        <v>1.039538018311732</v>
       </c>
       <c r="E21">
-        <v>0.9739648414888068</v>
+        <v>1.047885271131019</v>
       </c>
       <c r="F21">
-        <v>0.9724533816600393</v>
+        <v>1.055674793791767</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029595842079465</v>
+        <v>1.03362142878825</v>
       </c>
       <c r="J21">
-        <v>0.9879996409244499</v>
+        <v>1.047409113796602</v>
       </c>
       <c r="K21">
-        <v>0.9998910414696597</v>
+        <v>1.043105038909277</v>
       </c>
       <c r="L21">
-        <v>0.9894568351735482</v>
+        <v>1.051421731393313</v>
       </c>
       <c r="M21">
-        <v>0.9879761263715711</v>
+        <v>1.05918321676735</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9494316493881095</v>
+        <v>1.039721472141339</v>
       </c>
       <c r="D22">
-        <v>0.9795502475379463</v>
+        <v>1.038721036102714</v>
       </c>
       <c r="E22">
-        <v>0.9677336625430386</v>
+        <v>1.046845016649589</v>
       </c>
       <c r="F22">
-        <v>0.9655197932640708</v>
+        <v>1.054503653239639</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.02775868595492</v>
+        <v>1.033397503852103</v>
       </c>
       <c r="J22">
-        <v>0.9825637534356478</v>
+        <v>1.046523330715007</v>
       </c>
       <c r="K22">
-        <v>0.9955380026248878</v>
+        <v>1.042419669330029</v>
       </c>
       <c r="L22">
-        <v>0.983972615778086</v>
+        <v>1.050512703232797</v>
       </c>
       <c r="M22">
-        <v>0.9818067173909469</v>
+        <v>1.058142649199403</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9532451953386614</v>
+        <v>1.040324241398523</v>
       </c>
       <c r="D23">
-        <v>0.9822545976233222</v>
+        <v>1.039154336167629</v>
       </c>
       <c r="E23">
-        <v>0.9710627747402941</v>
+        <v>1.047396644488643</v>
       </c>
       <c r="F23">
-        <v>0.9692241856588212</v>
+        <v>1.055124648839807</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028741648677286</v>
+        <v>1.033516431258091</v>
       </c>
       <c r="J23">
-        <v>0.9854690976389188</v>
+        <v>1.046993146119555</v>
       </c>
       <c r="K23">
-        <v>0.9978648066995389</v>
+        <v>1.042783255762365</v>
       </c>
       <c r="L23">
-        <v>0.986903448324174</v>
+        <v>1.050994814552328</v>
       </c>
       <c r="M23">
-        <v>0.9851033932472455</v>
+        <v>1.058694470406692</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9676019852960329</v>
+        <v>1.042692503622207</v>
       </c>
       <c r="D24">
-        <v>0.9924585457622735</v>
+        <v>1.040855752281335</v>
       </c>
       <c r="E24">
-        <v>0.9836235434517014</v>
+        <v>1.049564654669631</v>
       </c>
       <c r="F24">
-        <v>0.9832012064722446</v>
+        <v>1.057566147817943</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03241914349529</v>
+        <v>1.03397976094024</v>
       </c>
       <c r="J24">
-        <v>0.9964068472788701</v>
+        <v>1.048837382896148</v>
       </c>
       <c r="K24">
-        <v>1.006619404904594</v>
+        <v>1.044208955779465</v>
       </c>
       <c r="L24">
-        <v>0.99794448385153</v>
+        <v>1.052888052708425</v>
       </c>
       <c r="M24">
-        <v>0.9975298930354853</v>
+        <v>1.060862636621174</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.983092409817799</v>
+        <v>1.045431251036327</v>
       </c>
       <c r="D25">
-        <v>1.003503345845148</v>
+        <v>1.042821198021078</v>
       </c>
       <c r="E25">
-        <v>0.9972244595229001</v>
+        <v>1.05207320139463</v>
       </c>
       <c r="F25">
-        <v>0.9983387770093003</v>
+        <v>1.060392930192734</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036335561400718</v>
+        <v>1.034507420008806</v>
       </c>
       <c r="J25">
-        <v>1.008202493825234</v>
+        <v>1.050966686135081</v>
       </c>
       <c r="K25">
-        <v>1.016047519233247</v>
+        <v>1.045851823938285</v>
       </c>
       <c r="L25">
-        <v>1.009866015527917</v>
+        <v>1.055075451771201</v>
       </c>
       <c r="M25">
-        <v>1.010962936178967</v>
+        <v>1.063370125040096</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_110/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_110/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.047608429025024</v>
+        <v>0.9946597993313797</v>
       </c>
       <c r="D2">
-        <v>1.044381863062638</v>
+        <v>1.011769781503682</v>
       </c>
       <c r="E2">
-        <v>1.054068460966527</v>
+        <v>1.007413174410073</v>
       </c>
       <c r="F2">
-        <v>1.062642762355889</v>
+        <v>1.00968315953563</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034920297112268</v>
+        <v>1.03921495774597</v>
       </c>
       <c r="J2">
-        <v>1.052656590605688</v>
+        <v>1.017001416575662</v>
       </c>
       <c r="K2">
-        <v>1.047153071356502</v>
+        <v>1.023067544127123</v>
       </c>
       <c r="L2">
-        <v>1.056812690318958</v>
+        <v>1.018770189084566</v>
       </c>
       <c r="M2">
-        <v>1.065363555061269</v>
+        <v>1.021009220976925</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.049185259509893</v>
+        <v>1.002664995299845</v>
       </c>
       <c r="D3">
-        <v>1.045511126727464</v>
+        <v>1.017497598327999</v>
       </c>
       <c r="E3">
-        <v>1.05551414776966</v>
+        <v>1.014480393005853</v>
       </c>
       <c r="F3">
-        <v>1.064273750346214</v>
+        <v>1.017555444765263</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035215496809748</v>
+        <v>1.041179769785447</v>
       </c>
       <c r="J3">
-        <v>1.053878881405361</v>
+        <v>1.023083272566631</v>
       </c>
       <c r="K3">
-        <v>1.048092731787552</v>
+        <v>1.027911384238564</v>
       </c>
       <c r="L3">
-        <v>1.058069929759842</v>
+        <v>1.024931287341659</v>
       </c>
       <c r="M3">
-        <v>1.066807348783988</v>
+        <v>1.027968521899881</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.050203793147683</v>
+        <v>1.007680408613946</v>
       </c>
       <c r="D4">
-        <v>1.046240063579247</v>
+        <v>1.021088352699287</v>
       </c>
       <c r="E4">
-        <v>1.056448248816176</v>
+        <v>1.018914895338837</v>
       </c>
       <c r="F4">
-        <v>1.065327974101145</v>
+        <v>1.022496947847723</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035404403034405</v>
+        <v>1.042397341031819</v>
       </c>
       <c r="J4">
-        <v>1.054667647215958</v>
+        <v>1.026889668519869</v>
       </c>
       <c r="K4">
-        <v>1.048698405076113</v>
+        <v>1.030938751700815</v>
       </c>
       <c r="L4">
-        <v>1.058881578580477</v>
+        <v>1.028790270778337</v>
       </c>
       <c r="M4">
-        <v>1.067739965838104</v>
+        <v>1.032331229850173</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.050631567642782</v>
+        <v>1.009751872319959</v>
       </c>
       <c r="D5">
-        <v>1.046546089941672</v>
+        <v>1.022571775396102</v>
       </c>
       <c r="E5">
-        <v>1.056840628256511</v>
+        <v>1.020747956679325</v>
       </c>
       <c r="F5">
-        <v>1.065770907049536</v>
+        <v>1.024540059879891</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.035483316578883</v>
+        <v>1.042896924804695</v>
       </c>
       <c r="J5">
-        <v>1.054998739537172</v>
+        <v>1.028460744401015</v>
       </c>
       <c r="K5">
-        <v>1.048952472852036</v>
+        <v>1.032187235033082</v>
       </c>
       <c r="L5">
-        <v>1.059222355373946</v>
+        <v>1.030383769983618</v>
       </c>
       <c r="M5">
-        <v>1.068131659719772</v>
+        <v>1.034133653605139</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.050703368677852</v>
+        <v>1.010097574241939</v>
       </c>
       <c r="D6">
-        <v>1.046597448723947</v>
+        <v>1.022819358181254</v>
       </c>
       <c r="E6">
-        <v>1.056906492147343</v>
+        <v>1.021053959275743</v>
       </c>
       <c r="F6">
-        <v>1.065845262291989</v>
+        <v>1.024881156210773</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03549653709225</v>
+        <v>1.042980103144034</v>
       </c>
       <c r="J6">
-        <v>1.055054301994997</v>
+        <v>1.028722874365593</v>
       </c>
       <c r="K6">
-        <v>1.048995099423452</v>
+        <v>1.032395478200121</v>
       </c>
       <c r="L6">
-        <v>1.059279547679252</v>
+        <v>1.030649683470091</v>
       </c>
       <c r="M6">
-        <v>1.068197404894331</v>
+        <v>1.03443448572216</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.050209510718585</v>
+        <v>1.007708230098157</v>
       </c>
       <c r="D7">
-        <v>1.046244154356771</v>
+        <v>1.021108275021934</v>
       </c>
       <c r="E7">
-        <v>1.056453493044083</v>
+        <v>1.018939508960407</v>
       </c>
       <c r="F7">
-        <v>1.065333893614206</v>
+        <v>1.022524380023973</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03540545945365</v>
+        <v>1.042404064011311</v>
       </c>
       <c r="J7">
-        <v>1.054672073262721</v>
+        <v>1.026910773596606</v>
       </c>
       <c r="K7">
-        <v>1.04870180212539</v>
+        <v>1.030955527444418</v>
       </c>
       <c r="L7">
-        <v>1.058886133778266</v>
+        <v>1.028811674234846</v>
       </c>
       <c r="M7">
-        <v>1.067745201147537</v>
+        <v>1.032355435861137</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.048141700714156</v>
+        <v>0.9974007427758316</v>
       </c>
       <c r="D8">
-        <v>1.044763873339297</v>
+        <v>1.013730408062964</v>
       </c>
       <c r="E8">
-        <v>1.054557322826592</v>
+        <v>1.009831470914419</v>
       </c>
       <c r="F8">
-        <v>1.063194202664957</v>
+        <v>1.012376570186971</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03502049883413</v>
+        <v>1.039890489248288</v>
       </c>
       <c r="J8">
-        <v>1.053070116452545</v>
+        <v>1.019084613573651</v>
       </c>
       <c r="K8">
-        <v>1.047471123740857</v>
+        <v>1.024727549557761</v>
       </c>
       <c r="L8">
-        <v>1.057237971592182</v>
+        <v>1.020879895363548</v>
       </c>
       <c r="M8">
-        <v>1.065851830979739</v>
+        <v>1.02339146267789</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.044483893126027</v>
+        <v>0.9778588428438132</v>
       </c>
       <c r="D9">
-        <v>1.04214160373407</v>
+        <v>0.9997681815515121</v>
       </c>
       <c r="E9">
-        <v>1.051205302516636</v>
+        <v>0.9926237194216906</v>
       </c>
       <c r="F9">
-        <v>1.059414704751303</v>
+        <v>0.9932176415866772</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034325917899638</v>
+        <v>1.035019331257072</v>
       </c>
       <c r="J9">
-        <v>1.050230572266005</v>
+        <v>1.004218441456155</v>
       </c>
       <c r="K9">
-        <v>1.045284276116232</v>
+        <v>1.01286502096828</v>
       </c>
       <c r="L9">
-        <v>1.054319063610508</v>
+        <v>1.005837616145549</v>
       </c>
       <c r="M9">
-        <v>1.062502746099586</v>
+        <v>1.006421724703829</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.042035309320702</v>
+        <v>0.9637133303824714</v>
       </c>
       <c r="D10">
-        <v>1.040383773376754</v>
+        <v>0.9896913434978065</v>
       </c>
       <c r="E10">
-        <v>1.048962920825393</v>
+        <v>0.9802170646894934</v>
       </c>
       <c r="F10">
-        <v>1.056888366954756</v>
+        <v>0.9794105000046914</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033851825778358</v>
+        <v>1.031427031472718</v>
       </c>
       <c r="J10">
-        <v>1.048325875183272</v>
+        <v>0.9934444679866078</v>
       </c>
       <c r="K10">
-        <v>1.043813782017492</v>
+        <v>1.004249252247651</v>
       </c>
       <c r="L10">
-        <v>1.052362834888257</v>
+        <v>0.9949529350239823</v>
       </c>
       <c r="M10">
-        <v>1.060260957184983</v>
+        <v>0.9941617286201117</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.040972530728778</v>
+        <v>0.9572718798214072</v>
       </c>
       <c r="D11">
-        <v>1.039620244514013</v>
+        <v>0.9851129788614663</v>
       </c>
       <c r="E11">
-        <v>1.047990008384568</v>
+        <v>0.9745813249718409</v>
       </c>
       <c r="F11">
-        <v>1.055792726526436</v>
+        <v>0.9731393588913847</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033643892218009</v>
+        <v>1.029776963899508</v>
       </c>
       <c r="J11">
-        <v>1.047498253127326</v>
+        <v>0.9885369424245147</v>
       </c>
       <c r="K11">
-        <v>1.043173978901836</v>
+        <v>1.000321211482384</v>
       </c>
       <c r="L11">
-        <v>1.05151322477629</v>
+        <v>0.9899990658952296</v>
       </c>
       <c r="M11">
-        <v>1.059287973336832</v>
+        <v>0.9885862500977445</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.040577376525441</v>
+        <v>0.9548265394202842</v>
       </c>
       <c r="D12">
-        <v>1.039336271838595</v>
+        <v>0.9833767836591573</v>
       </c>
       <c r="E12">
-        <v>1.047628323429212</v>
+        <v>0.9724441543433961</v>
       </c>
       <c r="F12">
-        <v>1.055385487652793</v>
+        <v>0.9707612774307199</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033566256014586</v>
+        <v>1.02914856288936</v>
       </c>
       <c r="J12">
-        <v>1.047190396723541</v>
+        <v>0.9866738821711538</v>
       </c>
       <c r="K12">
-        <v>1.04293585979148</v>
+        <v>0.9988295415236923</v>
       </c>
       <c r="L12">
-        <v>1.051197249847285</v>
+        <v>0.9881190327014582</v>
       </c>
       <c r="M12">
-        <v>1.058926212176778</v>
+        <v>0.9864709340012623</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.040662156318247</v>
+        <v>0.9553535497111824</v>
       </c>
       <c r="D13">
-        <v>1.039397201528772</v>
+        <v>0.983750871855036</v>
       </c>
       <c r="E13">
-        <v>1.047705919898046</v>
+        <v>0.9729046415147482</v>
       </c>
       <c r="F13">
-        <v>1.055472854133084</v>
+        <v>0.9712736718897711</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033582927404177</v>
+        <v>1.029284080809927</v>
       </c>
       <c r="J13">
-        <v>1.04725645305114</v>
+        <v>0.9870754004270222</v>
       </c>
       <c r="K13">
-        <v>1.042986958421981</v>
+        <v>0.999151038534913</v>
       </c>
       <c r="L13">
-        <v>1.051265045418318</v>
+        <v>0.9885241807586828</v>
       </c>
       <c r="M13">
-        <v>1.059003827246229</v>
+        <v>0.9869267580116466</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.040939875200263</v>
+        <v>0.9570708549993059</v>
       </c>
       <c r="D14">
-        <v>1.039596778711434</v>
+        <v>0.9849702111050367</v>
       </c>
       <c r="E14">
-        <v>1.047960117608603</v>
+        <v>0.9744055860001355</v>
       </c>
       <c r="F14">
-        <v>1.055759069589815</v>
+        <v>0.9729438094299573</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033637482968276</v>
+        <v>1.029725344221125</v>
       </c>
       <c r="J14">
-        <v>1.047472814662097</v>
+        <v>0.9883837849822066</v>
       </c>
       <c r="K14">
-        <v>1.043154305482135</v>
+        <v>1.000198593799323</v>
       </c>
       <c r="L14">
-        <v>1.051487114235841</v>
+        <v>0.9898445005313196</v>
       </c>
       <c r="M14">
-        <v>1.059258077277502</v>
+        <v>0.9884123286954904</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.041110934824777</v>
+        <v>0.9581217922122557</v>
       </c>
       <c r="D15">
-        <v>1.039719696348989</v>
+        <v>0.9857166642204021</v>
       </c>
       <c r="E15">
-        <v>1.048116696908854</v>
+        <v>0.9753244261290843</v>
       </c>
       <c r="F15">
-        <v>1.055935380375002</v>
+        <v>0.9739662288106951</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033671043316778</v>
+        <v>1.029995126641667</v>
       </c>
       <c r="J15">
-        <v>1.047606063530185</v>
+        <v>0.9891844759782109</v>
       </c>
       <c r="K15">
-        <v>1.04325735134984</v>
+        <v>1.000839608198132</v>
       </c>
       <c r="L15">
-        <v>1.051623885968628</v>
+        <v>0.9906525772314617</v>
       </c>
       <c r="M15">
-        <v>1.05941468221937</v>
+        <v>0.9893216250032904</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.042105788246935</v>
+        <v>0.9641337392997775</v>
       </c>
       <c r="D16">
-        <v>1.040434395603409</v>
+        <v>0.9899903948475968</v>
       </c>
       <c r="E16">
-        <v>1.049027448000089</v>
+        <v>0.9805851918914819</v>
       </c>
       <c r="F16">
-        <v>1.056961043845567</v>
+        <v>0.979820141863196</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03386556962877</v>
+        <v>1.031534443083418</v>
       </c>
       <c r="J16">
-        <v>1.048380740406963</v>
+        <v>0.9937647487761557</v>
       </c>
       <c r="K16">
-        <v>1.043856178411663</v>
+        <v>1.004505541648846</v>
       </c>
       <c r="L16">
-        <v>1.052419166237338</v>
+        <v>0.9952763251776791</v>
       </c>
       <c r="M16">
-        <v>1.060325482153174</v>
+        <v>0.9945257847630284</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.042729149265117</v>
+        <v>0.9678167656767905</v>
       </c>
       <c r="D17">
-        <v>1.040882066338727</v>
+        <v>0.9926114540679345</v>
       </c>
       <c r="E17">
-        <v>1.049598210293363</v>
+        <v>0.9838117842459951</v>
       </c>
       <c r="F17">
-        <v>1.057603947419795</v>
+        <v>0.9834106846891266</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033986879992691</v>
+        <v>1.032473845788374</v>
       </c>
       <c r="J17">
-        <v>1.048865898742429</v>
+        <v>0.9965704579402279</v>
       </c>
       <c r="K17">
-        <v>1.044230980388098</v>
+        <v>1.006750283463327</v>
       </c>
       <c r="L17">
-        <v>1.052917335619225</v>
+        <v>0.9981097326532292</v>
       </c>
       <c r="M17">
-        <v>1.060896186972302</v>
+        <v>0.997715974296372</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.043092502292184</v>
+        <v>0.9699348771121522</v>
       </c>
       <c r="D18">
-        <v>1.041142956261732</v>
+        <v>0.9941197719180873</v>
       </c>
       <c r="E18">
-        <v>1.049930939134834</v>
+        <v>0.985668684546521</v>
       </c>
       <c r="F18">
-        <v>1.057978777033221</v>
+        <v>0.9854771154753654</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034057382900525</v>
+        <v>1.0330127540452</v>
       </c>
       <c r="J18">
-        <v>1.049148606524111</v>
+        <v>0.9981838829127478</v>
       </c>
       <c r="K18">
-        <v>1.044449300329841</v>
+        <v>1.008040783627346</v>
       </c>
       <c r="L18">
-        <v>1.053207663934179</v>
+        <v>0.9997394671683472</v>
       </c>
       <c r="M18">
-        <v>1.061228850661203</v>
+        <v>0.9995513317786351</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.043216355428198</v>
+        <v>0.970652131490091</v>
       </c>
       <c r="D19">
-        <v>1.041231874377765</v>
+        <v>0.9946306838876467</v>
       </c>
       <c r="E19">
-        <v>1.050044359614786</v>
+        <v>0.9862976972137462</v>
       </c>
       <c r="F19">
-        <v>1.058106556558348</v>
+        <v>0.9861771202935957</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034081379329437</v>
+        <v>1.033195012255322</v>
       </c>
       <c r="J19">
-        <v>1.049244955871821</v>
+        <v>0.9987302072290364</v>
       </c>
       <c r="K19">
-        <v>1.044523691828837</v>
+        <v>1.008477701905214</v>
       </c>
       <c r="L19">
-        <v>1.053306617016991</v>
+        <v>1.000291378634606</v>
       </c>
       <c r="M19">
-        <v>1.061342243572779</v>
+        <v>1.000172947520853</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.042662293735415</v>
+        <v>0.967424763755233</v>
       </c>
       <c r="D20">
-        <v>1.04083405922642</v>
+        <v>0.9923323819878631</v>
       </c>
       <c r="E20">
-        <v>1.049536992327527</v>
+        <v>0.9834682277549383</v>
       </c>
       <c r="F20">
-        <v>1.05753498711329</v>
+        <v>0.9830283684276564</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03397389097151</v>
+        <v>1.032373999402583</v>
       </c>
       <c r="J20">
-        <v>1.048813874545088</v>
+        <v>0.9962718465419563</v>
       </c>
       <c r="K20">
-        <v>1.044190798317522</v>
+        <v>1.006511410601032</v>
       </c>
       <c r="L20">
-        <v>1.052863912211451</v>
+        <v>0.997808133593481</v>
       </c>
       <c r="M20">
-        <v>1.060834978447237</v>
+        <v>0.997376355791211</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.040858104795177</v>
+        <v>0.9565666516579108</v>
       </c>
       <c r="D21">
-        <v>1.039538018311732</v>
+        <v>0.9846121572661326</v>
       </c>
       <c r="E21">
-        <v>1.047885271131019</v>
+        <v>0.9739648414888059</v>
       </c>
       <c r="F21">
-        <v>1.055674793791767</v>
+        <v>0.9724533816600383</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03362142878825</v>
+        <v>1.029595842079464</v>
       </c>
       <c r="J21">
-        <v>1.047409113796602</v>
+        <v>0.9879996409244493</v>
       </c>
       <c r="K21">
-        <v>1.043105038909277</v>
+        <v>0.9998910414696592</v>
       </c>
       <c r="L21">
-        <v>1.051421731393313</v>
+        <v>0.9894568351735474</v>
       </c>
       <c r="M21">
-        <v>1.05918321676735</v>
+        <v>0.9879761263715704</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.039721472141339</v>
+        <v>0.9494316493881111</v>
       </c>
       <c r="D22">
-        <v>1.038721036102714</v>
+        <v>0.9795502475379473</v>
       </c>
       <c r="E22">
-        <v>1.046845016649589</v>
+        <v>0.9677336625430401</v>
       </c>
       <c r="F22">
-        <v>1.054503653239639</v>
+        <v>0.9655197932640724</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033397503852103</v>
+        <v>1.027758685954921</v>
       </c>
       <c r="J22">
-        <v>1.046523330715007</v>
+        <v>0.9825637534356492</v>
       </c>
       <c r="K22">
-        <v>1.042419669330029</v>
+        <v>0.995538002624889</v>
       </c>
       <c r="L22">
-        <v>1.050512703232797</v>
+        <v>0.9839726157780873</v>
       </c>
       <c r="M22">
-        <v>1.058142649199403</v>
+        <v>0.9818067173909483</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.040324241398523</v>
+        <v>0.9532451953386623</v>
       </c>
       <c r="D23">
-        <v>1.039154336167629</v>
+        <v>0.9822545976233227</v>
       </c>
       <c r="E23">
-        <v>1.047396644488643</v>
+        <v>0.9710627747402949</v>
       </c>
       <c r="F23">
-        <v>1.055124648839807</v>
+        <v>0.9692241856588223</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033516431258091</v>
+        <v>1.028741648677286</v>
       </c>
       <c r="J23">
-        <v>1.046993146119555</v>
+        <v>0.9854690976389197</v>
       </c>
       <c r="K23">
-        <v>1.042783255762365</v>
+        <v>0.9978648066995393</v>
       </c>
       <c r="L23">
-        <v>1.050994814552328</v>
+        <v>0.986903448324175</v>
       </c>
       <c r="M23">
-        <v>1.058694470406692</v>
+        <v>0.9851033932472464</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.042692503622207</v>
+        <v>0.9676019852960326</v>
       </c>
       <c r="D24">
-        <v>1.040855752281335</v>
+        <v>0.9924585457622729</v>
       </c>
       <c r="E24">
-        <v>1.049564654669631</v>
+        <v>0.983623543451701</v>
       </c>
       <c r="F24">
-        <v>1.057566147817943</v>
+        <v>0.9832012064722438</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03397976094024</v>
+        <v>1.03241914349529</v>
       </c>
       <c r="J24">
-        <v>1.048837382896148</v>
+        <v>0.9964068472788695</v>
       </c>
       <c r="K24">
-        <v>1.044208955779465</v>
+        <v>1.006619404904594</v>
       </c>
       <c r="L24">
-        <v>1.052888052708425</v>
+        <v>0.9979444838515296</v>
       </c>
       <c r="M24">
-        <v>1.060862636621174</v>
+        <v>0.9975298930354847</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.045431251036327</v>
+        <v>0.9830924098178004</v>
       </c>
       <c r="D25">
-        <v>1.042821198021078</v>
+        <v>1.003503345845149</v>
       </c>
       <c r="E25">
-        <v>1.05207320139463</v>
+        <v>0.9972244595229013</v>
       </c>
       <c r="F25">
-        <v>1.060392930192734</v>
+        <v>0.9983387770093014</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034507420008806</v>
+        <v>1.036335561400719</v>
       </c>
       <c r="J25">
-        <v>1.050966686135081</v>
+        <v>1.008202493825236</v>
       </c>
       <c r="K25">
-        <v>1.045851823938285</v>
+        <v>1.016047519233249</v>
       </c>
       <c r="L25">
-        <v>1.055075451771201</v>
+        <v>1.009866015527918</v>
       </c>
       <c r="M25">
-        <v>1.063370125040096</v>
+        <v>1.010962936178968</v>
       </c>
     </row>
   </sheetData>
